--- a/Streaming Video Revenue 2021 Chart.xlsx
+++ b/Streaming Video Revenue 2021 Chart.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saber/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deuci\Downloads\class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64BB4B9-DF35-D44B-B3D9-ADCAE27E81A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099EC39-FF7E-43DB-B90C-E0BD33AD6CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$A$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$6:$E$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$7:$E$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$A$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$A$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$6:$E$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$7:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -273,7 +283,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -306,7 +318,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -421,114 +436,6 @@
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:srgbClr val="C00000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E457-4049-8E26-1282E916CC8E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:srgbClr val="C00000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-E457-4049-8E26-1282E916CC8E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:srgbClr val="C00000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E457-4049-8E26-1282E916CC8E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:srgbClr val="C00000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-E457-4049-8E26-1282E916CC8E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -546,7 +453,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="C00000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -659,7 +569,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="00B050"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -669,7 +579,7 @@
                 <a:r>
                   <a:rPr lang="en-CA">
                     <a:solidFill>
-                      <a:srgbClr val="00B050"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Quarters</a:t>
@@ -692,7 +602,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="00B050"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -771,7 +681,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="92D050"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -781,7 +691,7 @@
                 <a:r>
                   <a:rPr lang="en-CA" b="1">
                     <a:solidFill>
-                      <a:srgbClr val="92D050"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>in $ Billions</a:t>
@@ -804,7 +714,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="92D050"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -956,7 +866,2594 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d>
+                <a:contourClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="1270000" dist="1422400" dir="12600000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="dkEdge">
+                <a:bevelT prst="angle"/>
+                <a:bevelB prst="convex"/>
+                <a:contourClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1680-4C8B-B93E-2C5227245808}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d>
+                <a:contourClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d>
+                <a:contourClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1680-4C8B-B93E-2C5227245808}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disney +</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1680-4C8B-B93E-2C5227245808}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E820-4C4C-B31B-0A8AD98BAA46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="533287680"/>
+        <c:axId val="528322800"/>
+        <c:axId val="433784832"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="533287680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528322800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528322800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533287680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="433784832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528322800"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disney +</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AE9-4CF8-84F5-3456F2E6711D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="541491088"/>
+        <c:axId val="441930320"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="541491088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441930320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441930320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541491088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disney +</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8577-4DE3-9E68-FC3AAA1D8B4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TikTok</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8577-4DE3-9E68-FC3AAA1D8B4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="542675248"/>
+        <c:axId val="183462128"/>
+        <c:axId val="538544320"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="542675248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183462128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="183462128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542675248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="538544320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183462128"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28E7-479E-9D2D-4AF730554910}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28E7-479E-9D2D-4AF730554910}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="183452608"/>
+        <c:axId val="285233488"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="183452608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285233488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="285233488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183452608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{64CDE2B0-7258-415B-924F-C4B4D812C8F2}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>TikTok</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="waterfall" hidden="1" uniqueId="{C1ADCD93-887A-4122-86D1-882848100792}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>YouTube</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1499,20 +3996,2539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="372">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>809626</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>61116</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>654843</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1226343</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1539,16 +6555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>223840</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1563,8 +6579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9596440" y="3948112"/>
-          <a:ext cx="338137" cy="723900"/>
+          <a:off x="4369120" y="3026092"/>
+          <a:ext cx="338137" cy="693420"/>
           <a:chOff x="4505327" y="3186112"/>
           <a:chExt cx="338137" cy="685800"/>
         </a:xfrm>
@@ -1660,6 +6676,269 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46CAB18-A52B-494E-55A1-7FFDC6A613E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285422F4-4046-3800-1680-0A9BA0DF13B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94E7B3E-90D5-6C0A-DEAE-C95A2E2A2978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE976324-D393-B5F1-D78F-6FA04B11024C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3985260" y="4267200"/>
+              <a:ext cx="3741420" cy="2198370"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>153939</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7698</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABFC162-7127-F407-4520-48D625F80A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>153940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E8BA78-01DE-BA40-DCC7-B67D84DDB4CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1964,17 +7243,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1983,12 +7262,12 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2002,7 +7281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2023,7 +7302,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +7323,7 @@
         <v>4.7889999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2065,7 +7344,7 @@
         <v>4.6970000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2086,7 +7365,7 @@
         <v>28.83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2107,13 +7386,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD31C93-7B6F-4FED-A8AC-A92264FB4A20}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2122,12 +7401,12 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +7420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +7441,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2183,7 +7462,7 @@
         <v>4.7889999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +7483,7 @@
         <v>4.6970000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2230,5 +7509,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>